--- a/inst/extdata/Bithynia_Inscriptions.xlsx
+++ b/inst/extdata/Bithynia_Inscriptions.xlsx
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">List1!$A$1:$E$2879</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="bithynia" vbProcedure="false">List1!$A$1:$A$2305</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">List1!$1:$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">List1!$1:$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -3401,7 +3402,7 @@
     <t xml:space="preserve">IK Klaudiu Polis 35</t>
   </si>
   <si>
-    <t xml:space="preserve">PH279400HD012839</t>
+    <t xml:space="preserve">PH279400</t>
   </si>
   <si>
     <t xml:space="preserve">IK Klaudiu Polis 36</t>
@@ -17814,8 +17815,8 @@
   </sheetPr>
   <dimension ref="A1:F2879"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A345" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F345" activeCellId="0" sqref="F345"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2855" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A529" activeCellId="0" sqref="A529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17824,7 +17825,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="4" width="8.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="48.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="9" style="4" width="8.89"/>
@@ -26696,7 +26697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="8" t="s">
         <v>1124</v>
       </c>
